--- a/docs/LTA1_C/LTA1_C_13.08.2024_output.xlsx
+++ b/docs/LTA1_C/LTA1_C_13.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731789958.43099</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731789960.5280578</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731789958.43099.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731789960.5280578.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>280.86</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>280.32</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.5400000000000205</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731789961.257878</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731789962.9776158</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731789961.257878.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731789962.9776158.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>280.16</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>280.4</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.2399999999999523</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731789964.304235</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731789964.304235.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731789964.304235.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>280.98</v>
       </c>
-      <c r="J5" t="n">
-        <v>280.98</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>282.9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-1.919999999999959</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731789967.6810076</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731789968.9089315</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731789967.6810076.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731789968.9089315.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>280.86</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>280.32</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.5400000000000205</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731789969.342978</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731789970.4398184</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731789969.342978.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731789970.4398184.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>280.16</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>280.4</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.2399999999999523</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731789971.693898</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731789973.5528073</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731789971.693898.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731789973.5528073.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>280.98</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>281.5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.5199999999999818</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731789973.6985087</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731789973.8770173</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731789973.6985087.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731789973.8770173.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>280.98</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>281.54</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731789975.84095</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731789976.4603212</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731789975.84095.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731789976.4603212.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>282.06</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>281.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731789977.893839</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731789979.3408947</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731789977.893839.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731789979.3408947.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>281.01</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>281.42</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.410000000000025</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731789979.8367047</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731789981.1365836</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731789979.8367047.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731789981.1365836.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>281.9</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>281.26</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.6399999999999864</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1051,95 +1127,107 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731789981.789883</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731789981.789883.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731789981.789883.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>281.78</v>
       </c>
-      <c r="J13" t="n">
-        <v>281.78</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>283.49</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-1.710000000000036</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731789987.87463</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731789988.809579</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731789987.87463.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731789988.809579.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>130.2</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>129.7</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.5</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -1147,51 +1235,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731789991.2588012</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731789991.7101853</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731789991.2588012.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731789991.7101853.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>130.21</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>129.93</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1199,51 +1293,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731789992.3679056</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731789993.9900916</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731789992.3679056.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731789993.9900916.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>130.25</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>130.03</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1251,51 +1351,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731789995.6316867</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731789997.2106328</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731789995.6316867.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731789997.2106328.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6441</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6446</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>5</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1303,51 +1409,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731789998.9091387</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731790000.9190445</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731789998.9091387.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790000.9190445.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6427.5</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6433</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>5.5</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1355,95 +1467,107 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731790002.8761058</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731790002.8761058.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731790002.8761058.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6444.5</v>
       </c>
-      <c r="J19" t="n">
-        <v>6444.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>6452</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731790005.351276</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731790007.2865298</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790005.351276.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790007.2865298.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>500.7</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>503.25</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>2.550000000000011</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -1451,51 +1575,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731790008.5198374</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731790009.1274538</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790008.5198374.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790009.1274538.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>504</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>502.45</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>1.550000000000011</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1503,51 +1633,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731790012.1517189</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731790013.1538453</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790012.1517189.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790013.1538453.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>503.8</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>502.65</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>1.150000000000034</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1555,51 +1691,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731790014.2626703</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731790020.8953357</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790014.2626703.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790020.8953357.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>227.28</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>226.52</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.7599999999999909</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -1607,95 +1749,107 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731790021.7238271</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731790021.7238271.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731790021.7238271.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>226.63</v>
       </c>
-      <c r="J24" t="n">
-        <v>226.63</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>226.9</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.2700000000000102</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731790022.883713</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731790023.9658856</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790022.883713.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790023.9658856.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1033</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1036.2</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>3.200000000000045</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1703,51 +1857,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731790024.378812</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731790026.5215647</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790024.378812.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790026.5215647.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1040.2</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1038.6</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>1.600000000000136</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1755,95 +1915,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731790027.3545175</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731790027.3545175.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731790027.3545175.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1044.4</v>
       </c>
-      <c r="J27" t="n">
-        <v>1044.4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1052.4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-8</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731790030.9508379</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731790034.4538372</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731790030.9508379.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731790034.4538372.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>12.096</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>12.134</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.03800000000000026</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -1851,51 +2023,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731790036.9727907</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731790037.1681583</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731790036.9727907.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731790037.1681583.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>12.139</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>12.166</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.02700000000000102</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1903,95 +2081,107 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731790037.7343674</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731790037.7343674.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731790037.7343674.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>12.18</v>
       </c>
-      <c r="J30" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>12.174</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.006000000000000227</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731790040.3608756</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731790046.939077</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731790040.3608756.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731790046.939077.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>125.88</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>128.66</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-2.780000000000001</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-2.21</v>
       </c>
     </row>
@@ -1999,95 +2189,107 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731790047.3046997</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731790047.3046997.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731790047.3046997.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>128.46</v>
       </c>
-      <c r="J32" t="n">
-        <v>128.46</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.460000000000008</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731790048.0638769</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731790048.631187</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790048.0638769.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790048.631187.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>163.68</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>162.96</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.7199999999999989</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -2095,51 +2297,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731790048.8169065</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731790055.7573357</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790048.8169065.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790055.7573357.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>163.52</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>164.84</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-1.319999999999993</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.8099999999999999</v>
       </c>
     </row>
@@ -2147,43 +2355,49 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731790056.7397661</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731790056.7397661.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731790056.7397661.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>164.72</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>164.72</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2191,51 +2405,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731790056.7756836</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731790057.5035102</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790056.7756836.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790057.5035102.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>50.34</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>50.125</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.2150000000000034</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -2243,51 +2463,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731790058.2166994</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731790060.5786664</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790058.2166994.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790060.5786664.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>50.345</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>50.23</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.115000000000002</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -2295,51 +2521,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731790060.6898305</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731790063.7104857</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790060.6898305.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790063.7104857.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>50.035</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>50.215</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.1800000000000068</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -2347,95 +2579,107 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731790064.351595</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731790064.351595.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731790064.351595.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>50.045</v>
       </c>
-      <c r="J39" t="n">
-        <v>50.045</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>50.055</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731790065.615467</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731790069.4695237</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790065.615467.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790069.4695237.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1402</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1396</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>6</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -2443,51 +2687,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731790069.4844847</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731790070.884647</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790069.4844847.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790070.884647.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1396</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1399.8</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>3.799999999999955</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2495,51 +2745,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731790071.1830459</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731790071.960466</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790071.1830459.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790071.960466.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1401.4</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1397.4</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>4</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2547,51 +2803,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731790072.8906534</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731790073.2332628</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790072.8906534.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790073.2332628.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1401.4</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1397</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>4.400000000000091</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -2599,51 +2861,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731790074.5227108</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731790075.9020634</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790074.5227108.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790075.9020634.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>59.83</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>59.6</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.2299999999999969</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -2651,51 +2919,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731790076.4485521</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731790078.22461</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790076.4485521.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790078.22461.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>59.84</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>59.86</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2703,51 +2977,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731790078.6239529</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731790078.8396335</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790078.6239529.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790078.8396335.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>59.66</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>59.89</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.230000000000004</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -2755,51 +3035,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731790080.854605</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731790081.5545866</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790080.854605.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790081.5545866.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>59.71</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>59.91</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.1999999999999957</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -2807,95 +3093,107 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731790082.2295148</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731790082.2295148.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731790082.2295148.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>59.69</v>
       </c>
-      <c r="J48" t="n">
-        <v>59.69</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>59.57</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.1199999999999974</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731790083.5403872</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731790086.8294356</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790083.5403872.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790086.8294356.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>99.42</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.3200000000000074</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -2903,95 +3201,107 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731790088.8465543</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731790088.8465543.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731790088.8465543.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>99.98</v>
       </c>
-      <c r="J50" t="n">
-        <v>99.98</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>100.22</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.2399999999999949</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731790091.2058544</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731790092.3189611</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/SELG1731790091.2058544.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/SELG1731790092.3189611.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>56.1</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>56.38</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2999,51 +3309,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731790093.0213838</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731790093.527056</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SELG1731790093.0213838.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SELG1731790093.527056.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>56.15</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>56.37</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -3051,51 +3367,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731790094.295844</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731790097.9795225</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SELG1731790094.295844.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SELG1731790097.9795225.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>56.47</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>56.58</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -3103,51 +3425,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731790098.5355177</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731790099.363103</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790098.5355177.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790099.363103.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>153.68</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>154.68</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -3155,51 +3483,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731790101.0674558</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731790101.4071958</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790101.0674558.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790101.4071958.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>155.1</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>155.06</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.03999999999999204</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3207,51 +3541,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731790102.3908129</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731790104.366323</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790102.3908129.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790104.366323.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>156.28</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>156.58</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.3000000000000114</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -3259,51 +3599,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731790105.226431</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731790109.775739</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731790105.226431.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731790109.775739.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>0.2999</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>0.2994</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.0005000000000000004</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -3311,95 +3657,107 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731790110.2512598</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731790110.2512598.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731790110.2512598.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>0.3004</v>
       </c>
-      <c r="J58" t="n">
-        <v>0.3004</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>0.304</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.003599999999999992</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-1.2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731790113.2605708</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731790117.735026</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790113.2605708.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790117.735026.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>20.498</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>20.483</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.01500000000000057</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3407,51 +3765,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731790119.0973773</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731790120.7955346</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790119.0973773.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790120.7955346.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>20.563</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>20.504</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.0589999999999975</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -3459,51 +3823,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731790121.8235853</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731790122.1700277</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790121.8235853.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790122.1700277.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>20.501</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>20.548</v>
       </c>
-      <c r="K61" t="n">
-        <v>0.0470000000000006</v>
-      </c>
-      <c r="L61" t="n">
+      <c r="M61" t="n">
+        <v>0.04699999999999704</v>
+      </c>
+      <c r="N61" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -3511,51 +3881,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731790122.305998</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731790122.8613443</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790122.305998.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790122.8613443.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>20.578</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>20.532</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.04599999999999937</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -3563,95 +3939,107 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731790123.1584227</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731790123.1584227.png</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731790123.1584227.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>20.498</v>
       </c>
-      <c r="J63" t="n">
-        <v>20.498</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>20.476</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.02200000000000202</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731790124.965081</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731790126.6061656</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790124.965081.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790126.6061656.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>690</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>686.8</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>3.200000000000045</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -3659,51 +4047,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731790127.7704563</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731790129.8851767</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790127.7704563.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790129.8851767.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>685.05</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>686.9</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>1.850000000000023</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -3711,95 +4105,107 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731790129.9134817</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731790129.9134817.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731790129.9134817.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>688</v>
       </c>
-      <c r="J66" t="n">
-        <v>688</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>686.45</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.549999999999955</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731790130.947189</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731790132.1270442</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731790130.947189.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731790132.1270442.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>153.91</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>154.64</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.7299999999999898</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -3807,51 +4213,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731790132.8426247</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731790135.9129872</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731790132.8426247.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731790135.9129872.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>155.39</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>156</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.6100000000000136</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -3859,51 +4271,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731790136.9445574</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731790137.4653585</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731790136.9445574.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731790137.4653585.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>157.2</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>156.83</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.3699999999999761</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -3911,44 +4329,50 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731790138.1778574</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731790138.1778574.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731790138.1778574.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>156.18</v>
       </c>
-      <c r="J70" t="n">
-        <v>156.18</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>156.16</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-0.02000000000001023</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>
@@ -4009,19 +4433,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.430000000000007</v>
+        <v>0.7199999999999704</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3037500000000009</v>
+        <v>0.08999999999999631</v>
       </c>
       <c r="E2" t="n">
-        <v>0.87</v>
+        <v>0.26</v>
       </c>
       <c r="F2" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -4031,19 +4455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.166999999999998</v>
+        <v>0.1449999999999925</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03339999999999961</v>
+        <v>0.02899999999999849</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8099999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="F3" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
@@ -4053,19 +4477,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6400000000000006</v>
+        <v>0.5200000000000031</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1280000000000001</v>
+        <v>0.1040000000000006</v>
       </c>
       <c r="E4" t="n">
-        <v>1.07</v>
+        <v>0.87</v>
       </c>
       <c r="F4" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5">
@@ -4075,16 +4499,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5100000000000122</v>
+        <v>0.5200000000000102</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1275000000000031</v>
+        <v>0.1300000000000026</v>
       </c>
       <c r="E5" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="F5" t="n">
         <v>0.26</v>
@@ -4097,16 +4521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4899999999999523</v>
+        <v>0.469999999999942</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1224999999999881</v>
+        <v>0.1174999999999855</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>0.08</v>
@@ -4141,19 +4565,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
@@ -4185,19 +4609,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01099999999999923</v>
+        <v>-0.004999999999999005</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.003666666666666411</v>
+        <v>-0.001666666666666335</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.09</v>
+        <v>-0.03999999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="11">
@@ -4229,19 +4653,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.800000000000182</v>
+        <v>-3.199999999999818</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>1.600000000000061</v>
+        <v>-1.066666666666606</v>
       </c>
       <c r="E12" t="n">
-        <v>0.46</v>
+        <v>-0.3100000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.15</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="13">
@@ -4273,19 +4697,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7799999999999727</v>
+        <v>-1.139999999999986</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2599999999999909</v>
+        <v>-0.3799999999999955</v>
       </c>
       <c r="E14" t="n">
-        <v>0.28</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.09</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="15">
@@ -4317,19 +4741,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.050000000000068</v>
+        <v>6.600000000000023</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>1.683333333333356</v>
+        <v>2.200000000000008</v>
       </c>
       <c r="E16" t="n">
-        <v>0.73</v>
+        <v>0.96</v>
       </c>
       <c r="F16" t="n">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="17">
@@ -4361,19 +4785,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.780000000000001</v>
+        <v>-3.240000000000009</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.390000000000001</v>
+        <v>-1.620000000000005</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.21</v>
+        <v>-2.57</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.1</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="19">
@@ -4383,19 +4807,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.7599999999999909</v>
+        <v>-1.030000000000001</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3799999999999955</v>
+        <v>-0.5150000000000006</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.33</v>
+        <v>-0.45</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.16</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="20">
@@ -4405,19 +4829,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0005000000000000004</v>
+        <v>-0.003099999999999992</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0002500000000000002</v>
+        <v>-0.001549999999999996</v>
       </c>
       <c r="E20" t="n">
-        <v>0.17</v>
+        <v>-1.03</v>
       </c>
       <c r="F20" t="n">
-        <v>0.08</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="21">
@@ -4427,19 +4851,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.3200000000000074</v>
+        <v>-0.5600000000000023</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1600000000000037</v>
+        <v>-0.2800000000000011</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.32</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.16</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="22">
